--- a/biology/Médecine/Fascia_axillaire/Fascia_axillaire.xlsx
+++ b/biology/Médecine/Fascia_axillaire/Fascia_axillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia axillaire est l'ensemble des deux lames aponévrotiques fermant l'aisselle.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia axillaire se compose du fascia axillaire superficiel et du fascia axillaire profond.
 Le fascia axillaire superficiel prolonge le fascia brachial et s'étend du bord inférieur du muscle grand pectoral au bord inférieur du muscle grand dorsal et du muscle grand rond.
